--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4653</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shadab Khan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>09/04/2017</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -736,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -784,7 +844,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -792,7 +851,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -832,7 +891,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>13/10/2017</t>
@@ -840,7 +898,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +950,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -932,7 +990,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -940,7 +997,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -980,7 +1037,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -988,7 +1044,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1028,7 +1084,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -1036,7 +1091,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1143,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1195,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1247,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1299,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1490,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1484,7 +1537,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -1492,7 +1544,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1532,7 +1584,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1631,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -1588,7 +1638,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1640,7 +1690,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1796,7 +1846,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1888,7 +1938,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1896,7 +1945,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1948,7 +1997,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2000,7 +2049,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2040,7 +2089,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -2048,7 +2096,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2088,7 +2136,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -2096,7 +2143,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2148,7 +2195,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2304,7 +2351,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2356,7 +2403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2396,7 +2443,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -2404,7 +2450,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2456,7 +2502,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2508,7 +2554,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2548,7 +2594,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/09/2019</t>
@@ -2556,7 +2601,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2596,7 +2641,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>02/10/2019</t>
@@ -2604,7 +2648,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2656,7 +2700,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2708,7 +2752,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2760,7 +2804,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2812,7 +2856,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2864,7 +2908,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2916,7 +2960,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2968,7 +3012,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3020,7 +3064,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3072,7 +3116,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3112,7 +3156,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -3120,7 +3163,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3159,7 +3202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3181,7 +3224,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3218,7 +3261,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3255,7 +3298,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3292,7 +3335,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3329,7 +3372,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3366,7 +3409,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3403,7 +3446,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3440,7 +3483,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3477,7 +3520,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3514,7 +3557,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3551,7 +3594,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3588,7 +3631,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3625,7 +3668,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3662,7 +3705,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3699,7 +3742,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3736,7 +3779,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3773,7 +3816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3810,7 +3853,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3847,7 +3890,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3884,7 +3927,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3921,7 +3964,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3958,7 +4001,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3995,7 +4038,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4032,7 +4075,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4069,7 +4112,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4106,7 +4149,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4143,7 +4186,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4180,7 +4223,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4217,7 +4260,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4254,7 +4297,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4291,7 +4334,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4328,7 +4371,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4365,7 +4408,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4402,7 +4445,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4439,7 +4482,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4476,7 +4519,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4513,7 +4556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4550,7 +4593,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4587,7 +4630,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4624,7 +4667,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4661,7 +4704,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4698,7 +4741,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4735,7 +4778,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4772,7 +4815,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4809,7 +4852,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4846,7 +4889,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4883,7 +4926,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4920,7 +4963,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4957,7 +5000,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4994,7 +5037,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5031,7 +5074,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5068,7 +5111,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5094,6 +5137,529 @@
       <c r="G52" t="inlineStr">
         <is>
           <t>1/41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.43%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.78%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.04%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.01%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.28%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.77%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.97%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5197,10 +5198,6 @@
           <t>4247</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5226,7 +5223,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5239,15 +5235,470 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.43%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.78%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.04%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.01%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.28%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.77%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.97%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5255,29 +5706,12 @@
           <t>4324</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.43%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5285,27 +5719,14 @@
           <t>4334</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5317,13 +5738,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5331,27 +5745,14 @@
           <t>4340</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.78%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5361,27 +5762,14 @@
           <t>4349</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5391,15 +5779,14 @@
           <t>4375</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5409,15 +5796,14 @@
           <t>4376</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5427,29 +5813,12 @@
           <t>4458</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12.04%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5457,29 +5826,12 @@
           <t>4459</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.01%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5487,29 +5839,12 @@
           <t>4472</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.28%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5517,27 +5852,14 @@
           <t>4473</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>7</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10.77%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5547,23 +5869,14 @@
           <t>4476</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5575,13 +5888,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5591,13 +5897,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5605,27 +5904,14 @@
           <t>4592</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>31.97%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -5637,13 +5923,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5651,15 +5930,14 @@
           <t>4638</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5198,6 +5197,10 @@
           <t>4247</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5223,6 +5226,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5235,6 +5239,10 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5307,6 +5315,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5382,6 +5394,9 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5397,6 +5412,9 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5542,6 +5560,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5554,6 +5573,10 @@
           <t>4586</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5566,6 +5589,10 @@
           <t>4590</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5608,6 +5635,10 @@
           <t>4634</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5623,321 +5654,12 @@
       <c r="B21" t="n">
         <v>6</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4638</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4653.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>09/04/2017</t>
@@ -651,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -797,6 +800,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -844,6 +848,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -891,6 +896,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>13/10/2017</t>
@@ -990,6 +996,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -1037,6 +1044,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -1084,6 +1092,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -1443,6 +1452,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -1490,6 +1500,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -1537,6 +1548,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -1584,6 +1596,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1631,6 +1644,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -1938,6 +1952,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -2089,6 +2104,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -2136,6 +2152,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -2443,6 +2460,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -2594,6 +2612,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/09/2019</t>
@@ -2641,6 +2660,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>02/10/2019</t>
@@ -3156,6 +3176,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -5143,527 +5164,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.43%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.78%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12.04%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.01%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.28%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10.77%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>31.97%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4638</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>